--- a/biology/Médecine/Région_de_bien-être_d'Uusimaa_de_l'Ouest/Région_de_bien-être_d'Uusimaa_de_l'Ouest.xlsx
+++ b/biology/Médecine/Région_de_bien-être_d'Uusimaa_de_l'Ouest/Région_de_bien-être_d'Uusimaa_de_l'Ouest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9gion_de_bien-%C3%AAtre_d%27Uusimaa_de_l%27Ouest</t>
+          <t>Région_de_bien-être_d'Uusimaa_de_l'Ouest</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La région de bien-être d'Uusimaa de l'Ouest (en finnois : Länsi-Uudenmaan hyvinvointialue) est un organisme public indépendant des municipalités et de l'État chargé des services sociaux, de santé et de secours pour l'Ouest de l'Uusimaa[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La région de bien-être d'Uusimaa de l'Ouest (en finnois : Länsi-Uudenmaan hyvinvointialue) est un organisme public indépendant des municipalités et de l'État chargé des services sociaux, de santé et de secours pour l'Ouest de l'Uusimaa.
 C'est l'une des 23 régions de bien-être de Finlande.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9gion_de_bien-%C3%AAtre_d%27Uusimaa_de_l%27Ouest</t>
+          <t>Région_de_bien-être_d'Uusimaa_de_l'Ouest</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Municipalités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La région de bien-être compte 10 municipalités, dont 6 villes[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La région de bien-être compte 10 municipalités, dont 6 villes.
  Espoo
  Hanko
  Inkoo
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9gion_de_bien-%C3%AAtre_d%27Uusimaa_de_l%27Ouest</t>
+          <t>Région_de_bien-être_d'Uusimaa_de_l'Ouest</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,14 +567,11 @@
           <t>Services</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La responsabilité légale de l'organisation des services sociaux et de santé et de secours passera des municipalités à la région de bien-être d'Uusimaa de l'Ouest à partir du 1er janvier 2023[5].
-Soins de santé
-Les municipalités font partie du District hospitalier d'Helsinki et de l'Uusimaa. 
-Les hopitaux de la région sont l'hôpital de Jorvi, l'hôpital de Lohja, l'hôpital de l'Uusimaa de l'Ouest, l'hôpital de Tammiharju et l'hôpital de Paloniemi.
-Opérations de secours
-En termes d'opérations de secours d'urgence, les municipalités de la région de bien-être d'Uusimaa de l'Ouest dépendent du service de secours de l'Uusimaa de l'Ouest.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La responsabilité légale de l'organisation des services sociaux et de santé et de secours passera des municipalités à la région de bien-être d'Uusimaa de l'Ouest à partir du 1er janvier 2023.
 </t>
         </is>
       </c>
@@ -571,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9gion_de_bien-%C3%AAtre_d%27Uusimaa_de_l%27Ouest</t>
+          <t>Région_de_bien-être_d'Uusimaa_de_l'Ouest</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,10 +597,87 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Soins de santé</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les municipalités font partie du District hospitalier d'Helsinki et de l'Uusimaa. 
+Les hopitaux de la région sont l'hôpital de Jorvi, l'hôpital de Lohja, l'hôpital de l'Uusimaa de l'Ouest, l'hôpital de Tammiharju et l'hôpital de Paloniemi.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Région_de_bien-être_d'Uusimaa_de_l'Ouest</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_de_bien-%C3%AAtre_d%27Uusimaa_de_l%27Ouest</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Opérations de secours</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En termes d'opérations de secours d'urgence, les municipalités de la région de bien-être d'Uusimaa de l'Ouest dépendent du service de secours de l'Uusimaa de l'Ouest.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Région_de_bien-être_d'Uusimaa_de_l'Ouest</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_de_bien-%C3%AAtre_d%27Uusimaa_de_l%27Ouest</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Politique et administration</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les élections régionales finlandaises de 2022 ont eu lieu le 23 janvier 2022 afin de désigner pour la première fois les 79 conseillers régionaux élus pour 3 ans pour administrer la région de services du bien-être d'Uusimaa de l'Ouest.
 Les répartitions des voix et des sièges sont les suivantes :
